--- a/biology/Médecine/Phlyctène/Phlyctène.xlsx
+++ b/biology/Médecine/Phlyctène/Phlyctène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phlyct%C3%A8ne</t>
+          <t>Phlyctène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, une phlyctène, ampoule, cloche ou cloque est une lésion de la peau, élévation circonscrite de l'épiderme, due à une collection de liquide clair contenu dans une cavité néo-formée.
 Elle peut être causée par des frottements répétés, une brûlure, le gel, l'exposition à des produits chimiques ou une infection, et peut être accompagnée d'une douleur localisée.
-Lorsque cette bulle éclate, il ne faut pas chercher à enlever les restes de peau, sous risque d'infection[1]. 
+Lorsque cette bulle éclate, il ne faut pas chercher à enlever les restes de peau, sous risque d'infection. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phlyct%C3%A8ne</t>
+          <t>Phlyctène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une phlyctène (ampoule, cloque) peut avoir des causes diverses :
 frottement intense et long ou répété de la peau avec un objet (chaussure, outils le plus souvent) ;
-brûlure thermique du deuxième degré superficielles et profondes (y compris sous forme de coups de soleil ou de brûlure par le froid)[2] ;
+brûlure thermique du deuxième degré superficielles et profondes (y compris sous forme de coups de soleil ou de brûlure par le froid) ;
 brûlure chimique ;
 brûlure radiologique (en cas d'exposition partielle (localisée) du corps à un rayonnement ionisant (notamment sur la peau), des phlyctènes apparaissent à partir d'une dose d'environ un Gray ;
 certains types d'allergies (par exemple à la suite d'une piqûre d'insecte, ou à un contact avec la sève phototoxique de certains végétaux (Apiacées, Rutacées, figuier, etc.) ;
@@ -527,7 +541,7 @@
 une dermatite herpétiforme : dermatite associée à des cloques démangeant intensément aux coudes et genoux, sur le dos et les fesses principalement. Les cloques forment souvent des plaques de même forme et de même taille des deux côtés du corps ;
 dermatose chronique bulleuse, caractérisée par des amas de cloques sur le visage, la bouche ou les organes génitaux ;
 syndrome de rayonnement cutané ;
-épidermolyse bulleuse[3].</t>
+épidermolyse bulleuse.</t>
         </is>
       </c>
     </row>
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phlyct%C3%A8ne</t>
+          <t>Phlyctène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,10 +569,12 @@
           <t>Soin, hygiène</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est recommandé de ne pas percer une phlyctène, y compris en cas de pus[4]. Si la bulle vient à se percer, une infection bactérienne est statistiquement plus probable. De même, il n’est pas recommandé de couper les morceaux de peau morte.
-La manipulation de la phlyctène doit se faire prudemment et avec des gants stériles ou des doigts ou objets désinfectés, car elle peut parfois être source d'infections, y compris certaines graves et rapides (ex. : staphylococcie maligne, à considérer comme urgence médicale car explosive et pouvant induire une septicémie engageant le pronostic vital et fonctionnel)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est recommandé de ne pas percer une phlyctène, y compris en cas de pus. Si la bulle vient à se percer, une infection bactérienne est statistiquement plus probable. De même, il n’est pas recommandé de couper les morceaux de peau morte.
+La manipulation de la phlyctène doit se faire prudemment et avec des gants stériles ou des doigts ou objets désinfectés, car elle peut parfois être source d'infections, y compris certaines graves et rapides (ex. : staphylococcie maligne, à considérer comme urgence médicale car explosive et pouvant induire une septicémie engageant le pronostic vital et fonctionnel).
 </t>
         </is>
       </c>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phlyct%C3%A8ne</t>
+          <t>Phlyctène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,9 +603,11 @@
           <t>Liquide intérieur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La poche de liquide peut contenir différents fluides[6], selon l’origine de la phlyctène :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La poche de liquide peut contenir différents fluides, selon l’origine de la phlyctène :
 du sérum ou du plasma (cas le plus courant, liquide clair)
 de la lymphe
 du sang (cas plus rare)
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phlyct%C3%A8ne</t>
+          <t>Phlyctène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Diagnostics différentiels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vocabulaire médical de dermatologie distingue théoriquement :
 La vésicule : lésion de volume variable mais petit (1 à 3 mm de diamètre) ;
